--- a/BTS.Web/ImportData/Check BTS Sample.xlsx
+++ b/BTS.Web/ImportData/Check BTS Sample.xlsx
@@ -25,11 +25,12 @@
     <definedName name="Operators">Operator!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -128,9 +129,6 @@
   </si>
   <si>
     <t>359184</t>
-  </si>
-  <si>
-    <t>LastCertificateNo</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2113,7 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -2135,7 +2133,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2160,11 +2158,8 @@
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="30">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2190,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="30">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2216,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
